--- a/Week_08_Assignment/MFGD_Assignment8_Gordon.xlsx
+++ b/Week_08_Assignment/MFGD_Assignment8_Gordon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="10" r:id="rId1"/>
@@ -1150,129 +1150,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1306,9 +1183,132 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1348,7 +1348,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{637B406E-A5FA-4855-8C14-A9DEF86053DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637B406E-A5FA-4855-8C14-A9DEF86053DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,14 +1764,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -1782,8 +1782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1885951"/>
-          <a:ext cx="361950" cy="476250"/>
+          <a:off x="2743200" y="1885951"/>
+          <a:ext cx="1714500" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2200,135 +2200,135 @@
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="72" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="22">
         <v>1</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="22">
         <v>2</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="22">
         <v>3</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="22">
         <v>4</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="22">
         <v>5</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="23">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="65" t="s">
+    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="61" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="68" t="s">
+    <row r="14" spans="1:11" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="29" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2375,80 +2375,80 @@
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="84">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="43">
         <v>0.4375</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="85">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="44">
         <v>0.30559999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="86">
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="45">
         <v>0.19</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="87">
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="46">
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
@@ -2456,90 +2456,90 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="78" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="38" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="78" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="39" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="81" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="42" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2578,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2602,66 +2602,66 @@
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -2732,7 +2732,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2753,70 +2753,70 @@
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="46"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="47"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="78"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2835,12 +2835,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="49" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="50" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2871,22 +2871,22 @@
       <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="47">
         <v>0.42130000000000001</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="47">
         <v>0.42130000000000001</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="47">
         <v>0.42130000000000001</v>
       </c>
-      <c r="F16" s="88">
+      <c r="F16" s="47">
         <v>0.42130000000000001</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="47">
         <v>0.42130000000000001</v>
       </c>
-      <c r="H16" s="88">
+      <c r="H16" s="47">
         <v>0.42130000000000001</v>
       </c>
     </row>
@@ -2894,27 +2894,27 @@
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="89">
+      <c r="C17" s="48">
         <v>0.42130000000000001</v>
       </c>
-      <c r="D17" s="89">
+      <c r="D17" s="48">
         <v>0.85</v>
       </c>
-      <c r="E17" s="89">
+      <c r="E17" s="48">
         <v>1.26</v>
       </c>
-      <c r="F17" s="89">
+      <c r="F17" s="48">
         <v>1.69</v>
       </c>
-      <c r="G17" s="89">
+      <c r="G17" s="48">
         <v>2.11</v>
       </c>
-      <c r="H17" s="89">
+      <c r="H17" s="48">
         <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="49" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -2954,168 +2954,168 @@
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
     </row>
     <row r="11" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="84"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="84"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="87"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
@@ -3137,7 +3137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -3160,122 +3160,122 @@
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -3427,73 +3427,73 @@
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="57"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="88"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3531,84 +3531,84 @@
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
       <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="91"/>
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
